--- a/data/case1/5/Qlm1_14.xlsx
+++ b/data/case1/5/Qlm1_14.xlsx
@@ -56,264 +56,264 @@
   <dimension ref="A1:B32"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" customWidth="true"/>
-    <col min="2" max="2" width="15.42578125" customWidth="true"/>
+    <col min="1" max="1" width="15.7109375" customWidth="true"/>
+    <col min="2" max="2" width="16.42578125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>-0.207495476648063</v>
+        <v>-0.31112539381262394</v>
       </c>
       <c r="B1" s="0">
-        <v>0.20736017660522776</v>
+        <v>0.31077622830142104</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.18525626159306796</v>
+        <v>-0.20818866504045452</v>
       </c>
       <c r="B2" s="0">
-        <v>0.18471048107491406</v>
+        <v>0.20746736693403101</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.13500604037321295</v>
+        <v>-0.14429667797497103</v>
       </c>
       <c r="B3" s="0">
-        <v>0.13471457607582416</v>
+        <v>0.14394953714330327</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.12671457613583748</v>
+        <v>-0.13594953726081016</v>
       </c>
       <c r="B4" s="0">
-        <v>0.12602303559540751</v>
+        <v>0.13528425999906624</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.086700515082467788</v>
+        <v>-0.13228426007415539</v>
       </c>
       <c r="B5" s="0">
-        <v>0.085547532880482002</v>
+        <v>0.12999171330923165</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.033501736131405835</v>
+        <v>-0.030756119001987159</v>
       </c>
       <c r="B6" s="0">
-        <v>-0.033562352870589507</v>
+        <v>0.030465560234491207</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.043562352787920755</v>
+        <v>-0.020465560411039974</v>
       </c>
       <c r="B7" s="0">
-        <v>-0.04359102965770445</v>
+        <v>0.020406153159997942</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.05359102957770201</v>
+        <v>-0.010406153339351576</v>
       </c>
       <c r="B8" s="0">
-        <v>-0.053748909916790488</v>
+        <v>0.010328440163239083</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>-0.01457384745896384</v>
+        <v>-0.0083284402619883124</v>
       </c>
       <c r="B9" s="0">
-        <v>0.014481579348347484</v>
+        <v>0.0082736027959313674</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>-0.012481579378754049</v>
+        <v>-0.00627360289652934</v>
       </c>
       <c r="B10" s="0">
-        <v>0.012476935194145611</v>
+        <v>0.0062733222526905053</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>-0.0094769352303707421</v>
+        <v>-0.0032733223638565789</v>
       </c>
       <c r="B11" s="0">
-        <v>0.0094692583307924849</v>
+        <v>0.0032703930063808784</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>-0.0059692583701864699</v>
+        <v>0.00022960687714235206</v>
       </c>
       <c r="B12" s="0">
-        <v>0.005920041434412493</v>
+        <v>-0.00024878124892202536</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>-0.0024200414746742283</v>
+        <v>0.0037487811324368181</v>
       </c>
       <c r="B13" s="0">
-        <v>0.0024036177321686836</v>
+        <v>-0.0037532480817867864</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.0055963822015305809</v>
+        <v>0.011753247918931287</v>
       </c>
       <c r="B14" s="0">
-        <v>-0.0055985297841516513</v>
+        <v>-0.01175739231126105</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>-0.0080509390431977579</v>
+        <v>0.012757392222026098</v>
       </c>
       <c r="B15" s="0">
-        <v>0.0080331847953498681</v>
+        <v>-0.012765263253087689</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>-0.0060331848274031152</v>
+        <v>-0.0060338469317851029</v>
       </c>
       <c r="B16" s="0">
-        <v>0.0060033292864596355</v>
+        <v>0.0060030962060499959</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>-0.0040033293192873742</v>
+        <v>-0.0040030963057882119</v>
       </c>
       <c r="B17" s="0">
-        <v>0.0039999999554254373</v>
+        <v>0.0039999998790722913</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.01610391504798514</v>
+        <v>-0.044643076472219434</v>
       </c>
       <c r="B18" s="0">
-        <v>0.016091399172779575</v>
+        <v>0.044594241586150218</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.012091399197222685</v>
+        <v>-0.012090857353391993</v>
       </c>
       <c r="B19" s="0">
-        <v>0.012016639925708006</v>
+        <v>0.012015931480176878</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.0080166399518404319</v>
+        <v>-0.0080159315302044121</v>
       </c>
       <c r="B20" s="0">
-        <v>0.0080056724103574339</v>
+        <v>0.0080055639058116412</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.004005672436758978</v>
+        <v>-0.0040055639563272294</v>
       </c>
       <c r="B21" s="0">
-        <v>0.003999999973374635</v>
+        <v>0.0039999999490554217</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.045704440734301244</v>
+        <v>-0.045706198822399458</v>
       </c>
       <c r="B22" s="0">
-        <v>0.045493459383362023</v>
+        <v>0.045495033164741017</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.040493459423522005</v>
+        <v>-0.04049503324510173</v>
       </c>
       <c r="B23" s="0">
-        <v>0.040097911159298505</v>
+        <v>0.040098067323480535</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.020097911289104431</v>
+        <v>-0.020098067566756583</v>
       </c>
       <c r="B24" s="0">
-        <v>0.019999999868566043</v>
+        <v>0.019999999753369302</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.11704926904901747</v>
+        <v>-0.097235594399442959</v>
       </c>
       <c r="B25" s="0">
-        <v>0.11688127179223962</v>
+        <v>0.097112878226173649</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.11438127183439839</v>
+        <v>-0.094612878325941452</v>
       </c>
       <c r="B26" s="0">
-        <v>0.11416197182026089</v>
+        <v>0.094454252690091778</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.11166197186514415</v>
+        <v>-0.091954252794889779</v>
       </c>
       <c r="B27" s="0">
-        <v>0.11034453903515518</v>
+        <v>0.091007021314603698</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.089001745216392258</v>
+        <v>-0.089007021438872513</v>
       </c>
       <c r="B28" s="0">
-        <v>0.088358140562506904</v>
+        <v>0.088358748570083634</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>-0.081358140653636113</v>
+        <v>-0.081358748762567323</v>
       </c>
       <c r="B29" s="0">
-        <v>0.081171619377443882</v>
+        <v>0.081171358140858629</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>-0.021171619777739181</v>
+        <v>-0.021171358891272085</v>
       </c>
       <c r="B30" s="0">
-        <v>0.021023221808685655</v>
+        <v>0.02102201402438908</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>-0.014023221906249717</v>
+        <v>-0.014022014230643975</v>
       </c>
       <c r="B31" s="0">
-        <v>0.014001097035137633</v>
+        <v>0.014000733386069442</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>-0.0040010971504109705</v>
+        <v>-0.004000733624154762</v>
       </c>
       <c r="B32" s="0">
-        <v>0.0039999999191326907</v>
+        <v>0.003999999823859568</v>
       </c>
     </row>
   </sheetData>
